--- a/data/trans_dic/P28A_2_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,07</t>
+          <t>5,24; 8,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,81</t>
+          <t>5,0; 9,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,58</t>
+          <t>0,55; 2,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,91</t>
+          <t>2,23; 5,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,64</t>
+          <t>2,77; 5,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,0</t>
+          <t>4,07; 7,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 14,54</t>
+          <t>3,33; 6,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,4</t>
+          <t>1,23; 3,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 6,95</t>
+          <t>1,37; 3,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 7,82</t>
+          <t>1,25; 3,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,06</t>
+          <t>5,1; 7,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,37</t>
+          <t>4,7; 7,15</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,91</t>
+          <t>1,11; 2,56</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,6</t>
+          <t>2,11; 4,12</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 7,83</t>
+          <t>2,32; 4,09</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,1</t>
+          <t>6,01; 10,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 19,88</t>
+          <t>5,96; 14,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,39</t>
+          <t>1,13; 4,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,29</t>
+          <t>1,73; 5,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 6,91</t>
+          <t>0,49; 4,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 11,09</t>
+          <t>1,7; 4,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 13,02</t>
+          <t>1,87; 4,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 7,05</t>
+          <t>0,76; 3,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,45</t>
+          <t>0,66; 3,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,92</t>
+          <t>0,82; 5,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,62</t>
+          <t>4,32; 6,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,23; 16,3</t>
+          <t>4,61; 8,84</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,5</t>
+          <t>1,26; 3,16</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,98</t>
+          <t>1,33; 3,34</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,31</t>
+          <t>0,86; 3,56</t>
         </is>
       </c>
     </row>
@@ -1020,17 +1021,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1045,22 +1046,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1070,22 +1071,22 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 14,05</t>
+          <t>2,13; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 15,91</t>
+          <t>1,97; 11,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,8</t>
+          <t>0,0; 2,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 14,11</t>
+          <t>1,0; 5,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,54; 32,2</t>
+          <t>3,19; 12,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,9</t>
+          <t>0,48; 5,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 15,01</t>
+          <t>0,85; 6,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,37</t>
+          <t>2,04; 6,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,42; 17,95</t>
+          <t>3,31; 9,49</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,86</t>
+          <t>0,33; 2,81</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 5,64</t>
+          <t>0,21; 3,31</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,51</t>
+          <t>5,94; 8,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,45</t>
+          <t>6,09; 9,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,63</t>
+          <t>0,97; 2,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,72</t>
+          <t>2,02; 4,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,18</t>
+          <t>2,51; 4,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,49</t>
+          <t>3,37; 5,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,57</t>
+          <t>3,31; 5,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,85</t>
+          <t>1,29; 2,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,15</t>
+          <t>1,41; 2,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,61</t>
+          <t>1,29; 2,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,56</t>
+          <t>4,86; 6,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,13</t>
+          <t>5,02; 7,23</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,03</t>
+          <t>1,33; 2,39</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,34</t>
+          <t>1,88; 3,13</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,14</t>
+          <t>2,17; 3,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>117069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>114360</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>21082</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59844</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9640</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97924</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87096</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38422</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41784</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4714</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>214993</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>201456</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>59504</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>101628</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14354</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>85877; 146668</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>82629; 151789</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8990; 44270</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>36686; 91359</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6346; 13572</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72804; 127763</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60081; 114203</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22581; 60458</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24994; 64033</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2966; 7132</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>174879; 258344</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>162475; 247435</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>38686; 88952</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>73136; 142729</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>10803; 19078</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>111583</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>123537</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31267</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41203</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1115</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>42208</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>42453</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23607</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>20601</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1490</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>153791</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>165990</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>54874</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>61803</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>83402; 144368</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>81848; 193397</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15522; 55864</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23860; 70383</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>352; 3018</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>24016; 66409</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>26054; 69344</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10455; 41653</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9080; 42131</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>535; 3327</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>120751; 191430</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>127591; 244448</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>34566; 86719</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>36790; 92302</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1188; 4894</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19768</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23106</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11112</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27299</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7654</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9587</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30879</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50405</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>9856</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>9587</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9023; 42133</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8332; 47251</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11253</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4138; 23729</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13153; 49739</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1953; 20832</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3493; 28484</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17060; 55180</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27623; 79244</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2771; 23376</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1769; 27556</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>248420</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>261003</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>54551</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>101046</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10755</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>151244</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>156849</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69684</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>71972</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6203</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>399663</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>417852</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>124234</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>173018</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>16958</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>204940; 296039</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>210191; 334986</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33267; 83722</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>69688; 144911</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7543; 14892</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>121669; 190116</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>119636; 197672</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>46496; 97891</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>51063; 108140</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3912; 8956</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>342964; 459435</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>354216; 510667</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>94043; 168688</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>132630; 220792</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>13119; 21870</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>